--- a/Project/src/main/webapp/WEB-INF/template/download.xlsx
+++ b/Project/src/main/webapp/WEB-INF/template/download.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
